--- a/2022/Realme/JULY/03.07.2022/realme Bank Statement June-20222.xlsx
+++ b/2022/Realme/JULY/03.07.2022/realme Bank Statement June-20222.xlsx
@@ -344,10 +344,10 @@
     <t>03.07.2022</t>
   </si>
   <si>
-    <t>Date:03.07.2022</t>
+    <t>D=Ayan Telecom</t>
   </si>
   <si>
-    <t>D=Ayan Telecom</t>
+    <t>Date:04.07.2022</t>
   </si>
 </sst>
 </file>
@@ -2426,6 +2426,12 @@
     <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2465,11 +2471,20 @@
     <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="37" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2521,21 +2536,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3988,67 +3988,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="242" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
-      <c r="N1" s="240"/>
-      <c r="O1" s="240"/>
-      <c r="P1" s="240"/>
-      <c r="Q1" s="240"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
+      <c r="Q1" s="242"/>
     </row>
     <row r="2" spans="1:24" s="59" customFormat="1" ht="18">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="243" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
-      <c r="M2" s="241"/>
-      <c r="N2" s="241"/>
-      <c r="O2" s="241"/>
-      <c r="P2" s="241"/>
-      <c r="Q2" s="241"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="243"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="243"/>
+      <c r="L2" s="243"/>
+      <c r="M2" s="243"/>
+      <c r="N2" s="243"/>
+      <c r="O2" s="243"/>
+      <c r="P2" s="243"/>
+      <c r="Q2" s="243"/>
     </row>
     <row r="3" spans="1:24" s="60" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="244" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="243"/>
-      <c r="H3" s="243"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="243"/>
-      <c r="M3" s="243"/>
-      <c r="N3" s="243"/>
-      <c r="O3" s="243"/>
-      <c r="P3" s="243"/>
-      <c r="Q3" s="244"/>
+      <c r="B3" s="245"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="245"/>
+      <c r="I3" s="245"/>
+      <c r="J3" s="245"/>
+      <c r="K3" s="245"/>
+      <c r="L3" s="245"/>
+      <c r="M3" s="245"/>
+      <c r="N3" s="245"/>
+      <c r="O3" s="245"/>
+      <c r="P3" s="245"/>
+      <c r="Q3" s="246"/>
       <c r="S3" s="42"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4057,10 +4057,10 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="62" customFormat="1">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="249" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="236" t="s">
@@ -4096,13 +4096,13 @@
       <c r="M4" s="236" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="238" t="s">
+      <c r="N4" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="251" t="s">
+      <c r="O4" s="238" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="249" t="s">
+      <c r="P4" s="251" t="s">
         <v>30</v>
       </c>
       <c r="Q4" s="61" t="s">
@@ -4115,8 +4115,8 @@
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="1:24" s="62" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="246"/>
-      <c r="B5" s="248"/>
+      <c r="A5" s="248"/>
+      <c r="B5" s="250"/>
       <c r="C5" s="237"/>
       <c r="D5" s="237"/>
       <c r="E5" s="237"/>
@@ -4128,9 +4128,9 @@
       <c r="K5" s="237"/>
       <c r="L5" s="237"/>
       <c r="M5" s="237"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="252"/>
-      <c r="P5" s="250"/>
+      <c r="N5" s="241"/>
+      <c r="O5" s="239"/>
+      <c r="P5" s="252"/>
       <c r="Q5" s="66" t="s">
         <v>31</v>
       </c>
@@ -7040,12 +7040,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7059,6 +7053,12 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7094,14 +7094,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="19.5">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="262" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="259"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="264"/>
       <c r="H1" s="38"/>
       <c r="I1" s="113"/>
       <c r="J1" s="113"/>
@@ -7154,14 +7154,14 @@
       <c r="BE1" s="113"/>
     </row>
     <row r="2" spans="1:57" ht="15" customHeight="1">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="265" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="262"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="267"/>
       <c r="H2" s="38"/>
       <c r="I2" s="113"/>
       <c r="J2" s="113"/>
@@ -7214,14 +7214,14 @@
       <c r="BE2" s="113"/>
     </row>
     <row r="3" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="265"/>
+      <c r="B3" s="269"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="270"/>
       <c r="H3" s="38"/>
       <c r="I3" s="113"/>
       <c r="J3" s="113"/>
@@ -9212,13 +9212,13 @@
       <c r="BE34" s="113"/>
     </row>
     <row r="35" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A35" s="267" t="s">
+      <c r="A35" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="268"/>
-      <c r="C35" s="268"/>
-      <c r="D35" s="268"/>
-      <c r="E35" s="269"/>
+      <c r="B35" s="273"/>
+      <c r="C35" s="273"/>
+      <c r="D35" s="273"/>
+      <c r="E35" s="274"/>
       <c r="F35" s="41"/>
       <c r="G35" s="50"/>
       <c r="H35" s="38"/>
@@ -9273,12 +9273,12 @@
       <c r="BE35" s="113"/>
     </row>
     <row r="36" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A36" s="255" t="s">
+      <c r="A36" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="266"/>
-      <c r="C36" s="266"/>
-      <c r="D36" s="256"/>
+      <c r="B36" s="271"/>
+      <c r="C36" s="271"/>
+      <c r="D36" s="261"/>
       <c r="E36" s="131">
         <f>F33-C119</f>
         <v>0</v>
@@ -9416,12 +9416,12 @@
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
-      <c r="G38" s="270" t="s">
+      <c r="G38" s="253" t="s">
         <v>66</v>
       </c>
-      <c r="H38" s="270"/>
-      <c r="I38" s="270"/>
-      <c r="J38" s="270"/>
+      <c r="H38" s="253"/>
+      <c r="I38" s="253"/>
+      <c r="J38" s="253"/>
       <c r="K38" s="113"/>
       <c r="L38" s="113"/>
       <c r="M38" s="113"/>
@@ -9561,11 +9561,11 @@
       </c>
       <c r="E40" s="41"/>
       <c r="F40" s="42"/>
-      <c r="G40" s="272" t="s">
+      <c r="G40" s="255" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="272"/>
-      <c r="I40" s="272"/>
+      <c r="H40" s="255"/>
+      <c r="I40" s="255"/>
       <c r="J40" s="143">
         <v>3000</v>
       </c>
@@ -9630,11 +9630,11 @@
       </c>
       <c r="E41" s="52"/>
       <c r="F41" s="42"/>
-      <c r="G41" s="273" t="s">
+      <c r="G41" s="256" t="s">
         <v>69</v>
       </c>
-      <c r="H41" s="273"/>
-      <c r="I41" s="273"/>
+      <c r="H41" s="256"/>
+      <c r="I41" s="256"/>
       <c r="J41" s="143">
         <v>1800</v>
       </c>
@@ -9698,11 +9698,11 @@
         <v>102</v>
       </c>
       <c r="F42" s="42"/>
-      <c r="G42" s="274" t="s">
+      <c r="G42" s="257" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="274"/>
-      <c r="I42" s="274"/>
+      <c r="H42" s="257"/>
+      <c r="I42" s="257"/>
       <c r="J42" s="18">
         <v>1500</v>
       </c>
@@ -9767,11 +9767,11 @@
       </c>
       <c r="E43" s="42"/>
       <c r="F43" s="113"/>
-      <c r="G43" s="271" t="s">
+      <c r="G43" s="254" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="271"/>
-      <c r="I43" s="271"/>
+      <c r="H43" s="254"/>
+      <c r="I43" s="254"/>
       <c r="J43" s="198">
         <f>SUM(J39:J41)</f>
         <v>17190</v>
@@ -13595,10 +13595,10 @@
       <c r="AX116" s="113"/>
     </row>
     <row r="117" spans="1:50" ht="15.75" thickBot="1">
-      <c r="A117" s="253" t="s">
+      <c r="A117" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="B117" s="254"/>
+      <c r="B117" s="259"/>
       <c r="C117" s="163">
         <f>SUM(C37:C116)</f>
         <v>579130</v>
@@ -13702,10 +13702,10 @@
       <c r="AX118" s="113"/>
     </row>
     <row r="119" spans="1:50" ht="13.5" thickBot="1">
-      <c r="A119" s="255" t="s">
+      <c r="A119" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="B119" s="256"/>
+      <c r="B119" s="261"/>
       <c r="C119" s="130">
         <f>C117</f>
         <v>579130</v>
@@ -14453,11 +14453,6 @@
     <sortCondition ref="A37"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A119:B119"/>
     <mergeCell ref="A1:F1"/>
@@ -14465,6 +14460,11 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -14481,7 +14481,7 @@
   <dimension ref="A1:AB215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -14529,7 +14529,7 @@
     </row>
     <row r="3" spans="1:28" ht="24" thickBot="1">
       <c r="A3" s="278" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" s="279"/>
       <c r="C3" s="279"/>
@@ -14602,7 +14602,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="137">
-        <v>4302870</v>
+        <v>3878690</v>
       </c>
       <c r="F5" s="139"/>
       <c r="I5" s="1"/>
@@ -14631,7 +14631,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="120">
-        <v>23368.5</v>
+        <v>32498.699999999997</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="117" t="s">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="B11" s="197">
         <f>B6-B9-B10</f>
-        <v>21009.5</v>
+        <v>30139.699999999997</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="117" t="s">
@@ -14878,7 +14878,7 @@
       <c r="F13" s="139"/>
       <c r="G13" s="107">
         <f>B18-E18</f>
-        <v>0</v>
+        <v>433310.19999999925</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="B18" s="120">
         <f>B5+B11-B15</f>
-        <v>7821009.5</v>
+        <v>7830139.6999999993</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="117" t="s">
@@ -15014,7 +15014,7 @@
       </c>
       <c r="E18" s="121">
         <f>SUM(E5:E17)</f>
-        <v>7821009.5</v>
+        <v>7396829.5</v>
       </c>
       <c r="F18" s="139"/>
       <c r="G18" s="124"/>
@@ -15204,7 +15204,7 @@
     </row>
     <row r="24" spans="1:28" ht="24" thickBot="1">
       <c r="A24" s="210" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="211">
         <v>6460</v>
